--- a/Pos_data_stat/position/top14-part4.xlsx
+++ b/Pos_data_stat/position/top14-part4.xlsx
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10714</v>
+        <v>10710</v>
       </c>
       <c r="B2" t="n">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="C2" t="n">
         <v>49</v>
